--- a/URS/DbLayouts/L8-遵循法令作業/JcicB095.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicB095.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45371F32-56EE-4595-AC48-C7803E823F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC58690-E1F5-4FCC-B7B7-1C7FD8758D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="條件" sheetId="11" r:id="rId5"/>
     <sheet name="更新欄位" sheetId="12" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$39</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="272">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -604,9 +601,6 @@
     <t xml:space="preserve">      LEFT JOIN ( SELECT DISTINCT</t>
   </si>
   <si>
-    <t xml:space="preserve">                         O."ClCode1", O."ClCode2", O."ClNo", O."OwnerId", O."OwnerPart", O."OwnerTotal"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                  FROM "ClBuildingOwner" O</t>
   </si>
   <si>
@@ -1081,6 +1075,15 @@
   <si>
     <t>左靠，擔保品所有權人或代表人身份證或統一證號</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         O."ClCode1", O."ClCode2", O."ClNo", O."OwnerPart", O."OwnerTotal"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       , C."CustId"  AS "OwnerId"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    LEFT JOIN "CustMain" C  ON  C."CustUKey"  = O."OwnerCustUKey"</t>
   </si>
 </sst>
 </file>
@@ -1421,6 +1424,42 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1431,42 +1470,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1488,29 +1491,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="暫存檔Work_B092"/>
-      <sheetName val="條件"/>
-      <sheetName val="更新欄位"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1836,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1847,18 +1827,18 @@
     <col min="3" max="3" width="33.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="66.21875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="31" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="66.21875" style="35" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="20" t="s">
         <v>80</v>
       </c>
@@ -1870,11 +1850,11 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="37"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1886,13 +1866,13 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="8" t="s">
         <v>117</v>
       </c>
@@ -1902,13 +1882,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="37"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1916,46 +1896,46 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="37"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="41"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="37"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="41"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="18"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="41"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="18"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1976,7 +1956,7 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="29" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -1985,8 +1965,8 @@
       <c r="I8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="38" t="s">
-        <v>241</v>
+      <c r="J8" s="34" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2006,11 +1986,11 @@
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="41" t="s">
-        <v>242</v>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="37" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2030,17 +2010,17 @@
         <v>2</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="32">
         <v>1</v>
       </c>
-      <c r="J10" s="41" t="s">
-        <v>246</v>
+      <c r="J10" s="37" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2060,17 +2040,17 @@
         <v>3</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="32">
         <v>2</v>
       </c>
-      <c r="J11" s="41" t="s">
-        <v>243</v>
+      <c r="J11" s="37" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2090,17 +2070,17 @@
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="32">
         <v>3</v>
       </c>
-      <c r="J12" s="41" t="s">
-        <v>244</v>
+      <c r="J12" s="37" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2120,17 +2100,17 @@
         <v>2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="32">
         <v>4</v>
       </c>
-      <c r="J13" s="41" t="s">
-        <v>245</v>
+      <c r="J13" s="37" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2150,17 +2130,17 @@
         <v>50</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="32">
         <v>5</v>
       </c>
-      <c r="J14" s="41" t="s">
-        <v>247</v>
+      <c r="J14" s="37" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -2180,17 +2160,17 @@
         <v>10</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" s="35" t="s">
+      <c r="G15" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="32">
         <v>6</v>
       </c>
-      <c r="J15" s="41" t="s">
-        <v>248</v>
+      <c r="J15" s="37" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2209,17 +2189,17 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="32">
         <v>7</v>
       </c>
-      <c r="J16" s="40" t="s">
-        <v>249</v>
+      <c r="J16" s="36" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2238,17 +2218,17 @@
       <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="32">
         <v>8</v>
       </c>
-      <c r="J17" s="40" t="s">
-        <v>250</v>
+      <c r="J17" s="36" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2267,17 +2247,17 @@
       <c r="E18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="32">
         <v>9</v>
       </c>
-      <c r="J18" s="40" t="s">
-        <v>251</v>
+      <c r="J18" s="36" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2296,17 +2276,17 @@
       <c r="E19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="32">
         <v>10</v>
       </c>
-      <c r="J19" s="40" t="s">
-        <v>252</v>
+      <c r="J19" s="36" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2325,17 +2305,17 @@
       <c r="E20" s="9">
         <v>3</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="32">
         <v>11</v>
       </c>
-      <c r="J20" s="40" t="s">
-        <v>253</v>
+      <c r="J20" s="36" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2354,14 +2334,14 @@
       <c r="E21" s="9">
         <v>36</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="32">
         <v>12</v>
       </c>
-      <c r="J21" s="40" t="s">
-        <v>254</v>
+      <c r="J21" s="36" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2380,14 +2360,14 @@
       <c r="E22" s="9">
         <v>36</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="32">
         <v>13</v>
       </c>
-      <c r="J22" s="40" t="s">
-        <v>255</v>
+      <c r="J22" s="36" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="239.4" x14ac:dyDescent="0.3">
@@ -2406,14 +2386,14 @@
       <c r="E23" s="9">
         <v>228</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="32">
         <v>14</v>
       </c>
-      <c r="J23" s="40" t="s">
-        <v>256</v>
+      <c r="J23" s="36" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="138.6" x14ac:dyDescent="0.3">
@@ -2432,14 +2412,14 @@
       <c r="E24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="32">
         <v>15</v>
       </c>
-      <c r="J24" s="40" t="s">
-        <v>257</v>
+      <c r="J24" s="36" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="138.6" x14ac:dyDescent="0.3">
@@ -2458,14 +2438,14 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="32">
         <v>16</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>258</v>
+      <c r="J25" s="36" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2484,14 +2464,14 @@
       <c r="E26" s="9">
         <v>6</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="32">
         <v>17</v>
       </c>
-      <c r="J26" s="40" t="s">
-        <v>259</v>
+      <c r="J26" s="36" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="50.4" x14ac:dyDescent="0.3">
@@ -2510,14 +2490,14 @@
       <c r="E27" s="9">
         <v>3</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="32">
         <v>18</v>
       </c>
-      <c r="J27" s="40" t="s">
-        <v>260</v>
+      <c r="J27" s="36" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2536,14 +2516,14 @@
       <c r="E28" s="9">
         <v>7</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="32">
         <v>19</v>
       </c>
-      <c r="J28" s="40" t="s">
-        <v>261</v>
+      <c r="J28" s="36" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="88.2" x14ac:dyDescent="0.3">
@@ -2562,17 +2542,17 @@
       <c r="E29" s="9">
         <v>7</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="32">
         <v>20</v>
       </c>
-      <c r="J29" s="40" t="s">
-        <v>262</v>
+      <c r="J29" s="36" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2594,17 +2574,17 @@
       <c r="F30" s="9">
         <v>2</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="32">
         <v>21</v>
       </c>
-      <c r="J30" s="40" t="s">
-        <v>263</v>
+      <c r="J30" s="36" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2626,17 +2606,17 @@
       <c r="F31" s="9">
         <v>2</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="32">
         <v>22</v>
       </c>
-      <c r="J31" s="40" t="s">
-        <v>265</v>
+      <c r="J31" s="36" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2658,17 +2638,17 @@
       <c r="F32" s="9">
         <v>2</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="32">
         <v>23</v>
       </c>
-      <c r="J32" s="40" t="s">
-        <v>266</v>
+      <c r="J32" s="36" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2690,17 +2670,17 @@
       <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="32">
         <v>24</v>
       </c>
-      <c r="J33" s="40" t="s">
-        <v>267</v>
+      <c r="J33" s="36" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2719,17 +2699,17 @@
       <c r="E34" s="9">
         <v>44</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="32">
         <v>25</v>
       </c>
-      <c r="J34" s="41" t="s">
-        <v>245</v>
+      <c r="J34" s="37" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2749,17 +2729,17 @@
         <v>5</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="32">
         <v>26</v>
       </c>
-      <c r="J35" s="41" t="s">
-        <v>264</v>
+      <c r="J35" s="37" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2779,10 +2759,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="41"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
@@ -2801,10 +2781,10 @@
         <v>6</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="41"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
@@ -2823,10 +2803,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="41"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
@@ -2845,30 +2825,30 @@
         <v>6</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="41"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="J40" s="40"/>
+      <c r="J40" s="36"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
-      <c r="J41" s="40"/>
+      <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="J42" s="40"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
-      <c r="J43" s="40"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
-      <c r="J44" s="40"/>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
@@ -3032,293 +3012,293 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="136.109375" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>186</v>
+      <c r="A1" s="28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
-        <v>171</v>
+      <c r="A59" s="28" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3330,236 +3310,256 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD7AC8-0B00-4AE6-B93A-3BA741C0C067}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="136.109375" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>171</v>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3572,237 +3572,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980C83C-4A24-4FA2-982E-8187E7F31C06}">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="136.109375" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
-        <v>238</v>
+      <c r="A59" s="28" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
-        <v>215</v>
+      <c r="A60" s="28" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
-        <v>142</v>
+      <c r="A61" s="28" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
